--- a/biology/Zoologie/Callicore_ines/Callicore_ines.xlsx
+++ b/biology/Zoologie/Callicore_ines/Callicore_ines.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Callicore ines est une espèce de lépidoptères (papillons) de la famille des Nymphalidae, de la sous-famille des Biblidinae et du genre Callicore.
 </t>
@@ -511,9 +523,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce Callicore ines a été initialement décrite en 1922 par l'entomologiste allemand Walter Ernst Hopp (d) (1884-1958) sous le protonyme de Catagramma ines[2],[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Callicore ines a été initialement décrite en 1922 par l'entomologiste allemand Walter Ernst Hopp (d) (1884-1958) sous le protonyme de Catagramma ines,.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'holotype de Callicore ines, un mâle, présente une envergure de 48 mm[3]. Les ailes sont bleu sombre dessus et sont bordées de d'une bande brillante vers pâle[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'holotype de Callicore ines, un mâle, présente une envergure de 48 mm. Les ailes sont bleu sombre dessus et sont bordées de d'une bande brillante vers pâle.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Écologie et distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Callicore ines est endémique en Colombie[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Callicore ines est endémique en Colombie.
 </t>
         </is>
       </c>
@@ -604,7 +622,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>(de) Walter Hopp, « Catagramma, Callicore und Perisama in Süd-Kolumbien. (Lep.) », Deutsche Entomologische Zeitschrift, Pensoft Publishers (d), vol. 1922,‎ 1922, p. 376-378 (ISSN 1435-1951 et 1860-1324, OCLC 1909060532, lire en ligne)</t>
         </is>
